--- a/Unit7/DataCapstoneProject2/ccFraudDefault/columns_description.xlsx
+++ b/Unit7/DataCapstoneProject2/ccFraudDefault/columns_description.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboard\DataScienceGuidedCapstone\Unit7\DataCapstoneProject2\ccFraudDefault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5E573C35-9441-4525-9FFD-F5B842B91EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5F9FA5-B64D-4CC6-BF2D-064491B8952E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1665" windowWidth="17670" windowHeight="10680"/>
+    <workbookView xWindow="3240" yWindow="4110" windowWidth="17670" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="columns_description" sheetId="1" r:id="rId1"/>
@@ -857,8 +857,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,8 +993,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,6 +1187,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1341,9 +1354,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1698,11 +1716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1734,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -1736,7 +1754,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1753,7 +1771,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -1770,7 +1788,7 @@
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -1787,7 +1805,7 @@
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
@@ -1804,7 +1822,7 @@
       <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1818,10 +1836,10 @@
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
@@ -1832,7 +1850,7 @@
       <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
@@ -1846,10 +1864,10 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
@@ -1860,10 +1878,10 @@
       <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
@@ -1874,27 +1892,27 @@
       <c r="A11">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1902,7 +1920,7 @@
       <c r="A13">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
@@ -1916,7 +1934,7 @@
       <c r="A14">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -1930,7 +1948,7 @@
       <c r="A15">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
@@ -1944,7 +1962,7 @@
       <c r="A16">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
@@ -1958,7 +1976,7 @@
       <c r="A17">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
@@ -1972,7 +1990,7 @@
       <c r="A18">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
@@ -1989,7 +2007,7 @@
       <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
@@ -2006,7 +2024,7 @@
       <c r="A20">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
@@ -2023,7 +2041,7 @@
       <c r="A21">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
@@ -2040,10 +2058,10 @@
       <c r="A22">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
@@ -2057,7 +2075,7 @@
       <c r="A23">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -2071,7 +2089,7 @@
       <c r="A24">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
@@ -2085,7 +2103,7 @@
       <c r="A25">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
@@ -2099,7 +2117,7 @@
       <c r="A26">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
@@ -2113,7 +2131,7 @@
       <c r="A27">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
@@ -2127,7 +2145,7 @@
       <c r="A28">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
@@ -2141,7 +2159,7 @@
       <c r="A29">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
@@ -2155,7 +2173,7 @@
       <c r="A30">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
@@ -2169,7 +2187,7 @@
       <c r="A31">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
@@ -2179,17 +2197,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2197,7 +2215,7 @@
       <c r="A33">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
@@ -2211,7 +2229,7 @@
       <c r="A34">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
@@ -2225,7 +2243,7 @@
       <c r="A35">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
@@ -2242,7 +2260,7 @@
       <c r="A36">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
@@ -2256,7 +2274,7 @@
       <c r="A37">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
@@ -2270,7 +2288,7 @@
       <c r="A38">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
@@ -2284,7 +2302,7 @@
       <c r="A39">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
@@ -2298,7 +2316,7 @@
       <c r="A40">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
@@ -2312,7 +2330,7 @@
       <c r="A41">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
@@ -2322,17 +2340,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4198,7 +4216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Unit7/DataCapstoneProject2/ccFraudDefault/columns_description.xlsx
+++ b/Unit7/DataCapstoneProject2/ccFraudDefault/columns_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboard\DataScienceGuidedCapstone\Unit7\DataCapstoneProject2\ccFraudDefault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5F9FA5-B64D-4CC6-BF2D-064491B8952E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC91B56-5FC4-4530-BE49-E0D3463EF894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="4110" windowWidth="17670" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34485" yWindow="3300" windowWidth="17670" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="columns_description" sheetId="1" r:id="rId1"/>
@@ -1719,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,7 +2358,7 @@
       <c r="A43">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
@@ -2375,7 +2375,7 @@
       <c r="A44">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
@@ -2392,7 +2392,7 @@
       <c r="A45">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
@@ -2409,7 +2409,7 @@
       <c r="A46">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
@@ -2426,7 +2426,7 @@
       <c r="A47">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
@@ -2443,7 +2443,7 @@
       <c r="A48">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
@@ -2460,7 +2460,7 @@
       <c r="A49">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
@@ -2477,7 +2477,7 @@
       <c r="A50">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
@@ -3264,7 +3264,7 @@
       <c r="A97">
         <v>98</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
@@ -3614,7 +3614,7 @@
       <c r="A122">
         <v>123</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">

--- a/Unit7/DataCapstoneProject2/ccFraudDefault/columns_description.xlsx
+++ b/Unit7/DataCapstoneProject2/ccFraudDefault/columns_description.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboard\DataScienceGuidedCapstone\Unit7\DataCapstoneProject2\ccFraudDefault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC91B56-5FC4-4530-BE49-E0D3463EF894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1094E6D7-4C45-4B29-8511-0EF496DFBC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34485" yWindow="3300" windowWidth="17670" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33585" yWindow="5085" windowWidth="21405" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="columns_description" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">columns_description!$A$1:$F$161</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1001,7 +1004,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,6 +1196,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1354,7 +1369,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1362,6 +1377,8 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1717,10 +1734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1784,7 +1802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1801,7 +1819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1818,7 +1836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1832,7 +1850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1846,7 +1864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1860,7 +1878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1874,7 +1892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1888,7 +1906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>13</v>
       </c>
@@ -1916,7 +1934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1930,7 +1948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1944,7 +1962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1958,7 +1976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1972,7 +1990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1986,7 +2004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -2003,7 +2021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2020,7 +2038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -2037,7 +2055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -2054,7 +2072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -2071,7 +2089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2085,7 +2103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2099,7 +2117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2113,7 +2131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
@@ -2127,7 +2145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2141,7 +2159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2155,7 +2173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2169,7 +2187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2183,7 +2201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2197,7 +2215,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>33</v>
       </c>
@@ -2211,7 +2229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2225,7 +2243,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2239,7 +2257,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2256,7 +2274,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2270,7 +2288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2284,7 +2302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2326,7 +2344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2340,7 +2358,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43</v>
       </c>
@@ -2354,772 +2372,817 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>45</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>46</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>47</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>48</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>49</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E51" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E55" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
-      <c r="C56" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
-      <c r="C57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E60" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E61" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E62" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E63" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E64" t="s">
-        <v>98</v>
-      </c>
-      <c r="F64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E65" t="s">
-        <v>98</v>
-      </c>
-      <c r="F65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E66" t="s">
-        <v>98</v>
-      </c>
-      <c r="F66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E68" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E69" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
-      <c r="C70" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" t="s">
-        <v>98</v>
-      </c>
-      <c r="F70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>72</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E71" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
-      <c r="C73" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E74" t="s">
-        <v>98</v>
-      </c>
-      <c r="F74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="7"/>
+      <c r="E74" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E75" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E76" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E77" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E78" t="s">
-        <v>98</v>
-      </c>
-      <c r="F78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E79" t="s">
-        <v>98</v>
-      </c>
-      <c r="F79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E80" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E81" t="s">
-        <v>98</v>
-      </c>
-      <c r="F81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E82" t="s">
-        <v>98</v>
-      </c>
-      <c r="F82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E83" t="s">
-        <v>98</v>
-      </c>
-      <c r="F83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E84" t="s">
-        <v>98</v>
-      </c>
-      <c r="F84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>86</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>137</v>
-      </c>
-      <c r="E85" t="s">
-        <v>98</v>
-      </c>
-      <c r="F85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>87</v>
-      </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>138</v>
-      </c>
-      <c r="E86" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="7"/>
+      <c r="E86" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
-      <c r="C87" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>89</v>
       </c>
@@ -3136,7 +3199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>90</v>
       </c>
@@ -3153,24 +3216,25 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E90" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="7"/>
+      <c r="E90" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>92</v>
       </c>
@@ -3187,7 +3251,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>93</v>
       </c>
@@ -3218,7 +3282,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>95</v>
       </c>
@@ -3246,7 +3310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>97</v>
       </c>
@@ -3260,7 +3324,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>98</v>
       </c>
@@ -3274,7 +3338,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>99</v>
       </c>
@@ -3288,7 +3352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>100</v>
       </c>
@@ -3302,7 +3366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -3316,7 +3380,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>102</v>
       </c>
@@ -3330,7 +3394,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>103</v>
       </c>
@@ -3344,7 +3408,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>104</v>
       </c>
@@ -3358,7 +3422,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>105</v>
       </c>
@@ -3372,7 +3436,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>106</v>
       </c>
@@ -3386,7 +3450,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>107</v>
       </c>
@@ -3400,7 +3464,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>108</v>
       </c>
@@ -3414,7 +3478,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>109</v>
       </c>
@@ -3428,7 +3492,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>110</v>
       </c>
@@ -3442,7 +3506,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>111</v>
       </c>
@@ -3456,7 +3520,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>112</v>
       </c>
@@ -3470,7 +3534,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>113</v>
       </c>
@@ -3484,7 +3548,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>114</v>
       </c>
@@ -3498,7 +3562,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>115</v>
       </c>
@@ -3512,7 +3576,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>116</v>
       </c>
@@ -3526,7 +3590,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>117</v>
       </c>
@@ -3540,7 +3604,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>118</v>
       </c>
@@ -3554,7 +3618,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>119</v>
       </c>
@@ -3568,7 +3632,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>120</v>
       </c>
@@ -3582,7 +3646,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>121</v>
       </c>
@@ -3596,7 +3660,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>122</v>
       </c>
@@ -3610,7 +3674,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>123</v>
       </c>
@@ -3624,7 +3688,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>124</v>
       </c>
@@ -3638,7 +3702,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>176</v>
       </c>
@@ -3655,7 +3719,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>177</v>
       </c>
@@ -3672,7 +3736,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>178</v>
       </c>
@@ -3686,7 +3750,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>179</v>
       </c>
@@ -3700,7 +3764,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>180</v>
       </c>
@@ -3714,7 +3778,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>181</v>
       </c>
@@ -3728,7 +3792,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>182</v>
       </c>
@@ -3742,7 +3806,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>183</v>
       </c>
@@ -3756,7 +3820,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>184</v>
       </c>
@@ -3770,7 +3834,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>185</v>
       </c>
@@ -3787,7 +3851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>186</v>
       </c>
@@ -3801,7 +3865,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>187</v>
       </c>
@@ -3815,7 +3879,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>188</v>
       </c>
@@ -3829,7 +3893,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>189</v>
       </c>
@@ -3846,7 +3910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>190</v>
       </c>
@@ -3863,7 +3927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>191</v>
       </c>
@@ -3880,7 +3944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>192</v>
       </c>
@@ -3894,7 +3958,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>193</v>
       </c>
@@ -3908,7 +3972,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>194</v>
       </c>
@@ -3925,7 +3989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>195</v>
       </c>
@@ -3939,7 +4003,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>196</v>
       </c>
@@ -3953,7 +4017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>197</v>
       </c>
@@ -3967,7 +4031,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>198</v>
       </c>
@@ -3981,7 +4045,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>199</v>
       </c>
@@ -3995,7 +4059,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>200</v>
       </c>
@@ -4009,7 +4073,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>201</v>
       </c>
@@ -4023,7 +4087,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>202</v>
       </c>
@@ -4037,7 +4101,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>203</v>
       </c>
@@ -4051,7 +4115,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>204</v>
       </c>
@@ -4065,7 +4129,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>205</v>
       </c>
@@ -4079,7 +4143,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>206</v>
       </c>
@@ -4096,7 +4160,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>207</v>
       </c>
@@ -4110,7 +4174,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>208</v>
       </c>
@@ -4127,7 +4191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>209</v>
       </c>
@@ -4144,7 +4208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>210</v>
       </c>
@@ -4161,7 +4225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>211</v>
       </c>
@@ -4178,7 +4242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>212</v>
       </c>
@@ -4195,7 +4259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>213</v>
       </c>
@@ -4210,6 +4274,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F161" xr:uid="{19FD44FF-EA20-4BCB-A3D4-476791F8EAA5}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="OBS_30_CNT_SOCIAL_CIRCLE"/>
+        <filter val="OBS_60_CNT_SOCIAL_CIRCLE"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:F87">
+      <sortCondition descending="1" ref="C1:C161"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
